--- a/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.3.0 20170221/版本Bug和特性计划及评审表v5.3.0_马丁组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/Mogo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.0 20170221/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="9120" windowWidth="28140" windowHeight="8840"/>
+    <workbookView xWindow="560" yWindow="440" windowWidth="28240" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -318,6 +318,45 @@
     <t>游侠</t>
     <rPh sb="0" eb="1">
       <t>you'xia</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <rPh sb="0" eb="1">
+      <t>li'meng</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -958,6 +997,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,18 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1371,7 +1410,7 @@
   <dimension ref="A1:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1380,12 +1419,12 @@
     <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="47" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="47" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="48" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="47" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="48" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="48" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="13" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="13" style="48" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="48" customWidth="1"/>
     <col min="12" max="14" width="11.83203125" style="47" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="47" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="48" customWidth="1"/>
@@ -1480,17 +1519,27 @@
       <c r="C2" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="78" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="F2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="54">
+        <v>42785</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="54">
+        <v>42785</v>
+      </c>
       <c r="K2" s="53"/>
       <c r="L2" s="62" t="s">
         <v>71</v>
@@ -1501,11 +1550,19 @@
       <c r="N2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="88" t="s">
+      <c r="O2" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>42786</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="79" t="s">
         <v>79</v>
       </c>
       <c r="T2" s="67"/>
@@ -1524,17 +1581,27 @@
       <c r="C3" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="78" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="F3" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="54">
+        <v>42785</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="54">
+        <v>42785</v>
+      </c>
       <c r="K3" s="53"/>
       <c r="L3" s="62" t="s">
         <v>84</v>
@@ -1545,11 +1612,19 @@
       <c r="N3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="89" t="s">
+      <c r="O3" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>42786</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="80" t="s">
         <v>80</v>
       </c>
       <c r="T3" s="59"/>
@@ -1568,17 +1643,27 @@
       <c r="C4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="F4" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="54">
+        <v>42785</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="54">
+        <v>42785</v>
+      </c>
       <c r="K4" s="53"/>
       <c r="L4" s="62" t="s">
         <v>85</v>
@@ -1589,11 +1674,19 @@
       <c r="N4" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="90" t="s">
+      <c r="O4" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>42786</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="81" t="s">
         <v>81</v>
       </c>
       <c r="T4" s="59"/>
@@ -1618,11 +1711,21 @@
       <c r="E5" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="F5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="54">
+        <v>42785</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="54">
+        <v>42785</v>
+      </c>
       <c r="K5" s="53"/>
       <c r="L5" s="62" t="s">
         <v>86</v>
@@ -1633,11 +1736,19 @@
       <c r="N5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="53"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="89" t="s">
+      <c r="O5" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>42786</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" s="80" t="s">
         <v>82</v>
       </c>
       <c r="T5" s="71"/>
@@ -1656,17 +1767,27 @@
       <c r="C6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="78" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
+      <c r="F6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="54">
+        <v>42785</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="54">
+        <v>42785</v>
+      </c>
       <c r="K6" s="53"/>
       <c r="L6" s="62" t="s">
         <v>71</v>
@@ -1677,11 +1798,19 @@
       <c r="N6" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="53"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="88" t="s">
+      <c r="O6" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>42786</v>
+      </c>
+      <c r="R6" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="79" t="s">
         <v>83</v>
       </c>
       <c r="T6" s="59"/>
@@ -5769,19 +5898,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5819,8 +5948,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5832,8 +5961,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5845,8 +5974,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5858,8 +5987,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5871,8 +6000,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5884,8 +6013,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5897,8 +6026,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5910,8 +6039,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5972,36 +6101,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6286,36 +6415,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6600,36 +6729,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6916,36 +7045,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
